--- a/team_specific_matrix/Drake_B.xlsx
+++ b/team_specific_matrix/Drake_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2037037037037037</v>
+        <v>0.2024291497975708</v>
       </c>
       <c r="C2">
-        <v>0.5416666666666666</v>
+        <v>0.5465587044534413</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01851851851851852</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1296296296296296</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1064814814814815</v>
+        <v>0.1012145748987854</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04132231404958678</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01652892561983471</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7024793388429752</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2396694214876033</v>
+        <v>0.2536231884057971</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.1956521739130435</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05142857142857143</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01714285714285714</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05714285714285714</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1828571428571429</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02857142857142857</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09714285714285714</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="R6">
-        <v>0.1085714285714286</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="S6">
-        <v>0.4571428571428571</v>
+        <v>0.4603960396039604</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07453416149068323</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03105590062111801</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04347826086956522</v>
+        <v>0.046875</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08695652173913043</v>
+        <v>0.109375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2546583850931677</v>
+        <v>0.234375</v>
       </c>
       <c r="R7">
-        <v>0.04347826086956522</v>
+        <v>0.046875</v>
       </c>
       <c r="S7">
-        <v>0.4658385093167702</v>
+        <v>0.453125</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08439897698209718</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02046035805626599</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="E8">
-        <v>0.002557544757033248</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="F8">
-        <v>0.08439897698209718</v>
+        <v>0.08405172413793104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07161125319693094</v>
+        <v>0.07974137931034483</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02301790281329923</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1815856777493606</v>
+        <v>0.1918103448275862</v>
       </c>
       <c r="R8">
-        <v>0.08184143222506395</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="S8">
-        <v>0.4501278772378516</v>
+        <v>0.4245689655172414</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06936416184971098</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005780346820809248</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06936416184971098</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09248554913294797</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01734104046242774</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1849710982658959</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.08092485549132948</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.4797687861271676</v>
+        <v>0.4907407407407408</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1122004357298475</v>
+        <v>0.1091417910447761</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02178649237472767</v>
+        <v>0.02332089552238806</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06862745098039216</v>
+        <v>0.06996268656716417</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1056644880174292</v>
+        <v>0.105410447761194</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02941176470588235</v>
+        <v>0.03078358208955224</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1917211328976035</v>
+        <v>0.1996268656716418</v>
       </c>
       <c r="R10">
-        <v>0.0915032679738562</v>
+        <v>0.08582089552238806</v>
       </c>
       <c r="S10">
-        <v>0.3790849673202614</v>
+        <v>0.3759328358208955</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1232876712328767</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0730593607305936</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="K11">
-        <v>0.1780821917808219</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="L11">
-        <v>0.6118721461187214</v>
+        <v>0.5916030534351145</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0136986301369863</v>
+        <v>0.01145038167938931</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7835820895522388</v>
+        <v>0.7935483870967742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1716417910447761</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02238805970149254</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02238805970149254</v>
+        <v>0.01935483870967742</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.673469387755102</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3265306122448979</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01234567901234568</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1790123456790123</v>
+        <v>0.16751269035533</v>
       </c>
       <c r="I15">
-        <v>0.06790123456790123</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J15">
-        <v>0.2901234567901235</v>
+        <v>0.2944162436548223</v>
       </c>
       <c r="K15">
-        <v>0.06790123456790123</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06790123456790123</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3024691358024691</v>
+        <v>0.3248730964467005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02205882352941177</v>
+        <v>0.01875</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1911764705882353</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.05882352941176471</v>
+        <v>0.08125</v>
       </c>
       <c r="J16">
-        <v>0.4485294117647059</v>
+        <v>0.43125</v>
       </c>
       <c r="K16">
-        <v>0.08088235294117647</v>
+        <v>0.075</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02205882352941177</v>
+        <v>0.01875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02941176470588235</v>
+        <v>0.04375</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1470588235294118</v>
+        <v>0.13125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01488095238095238</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2053571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.1009852216748768</v>
       </c>
       <c r="J17">
-        <v>0.4345238095238095</v>
+        <v>0.416256157635468</v>
       </c>
       <c r="K17">
         <v>0.07142857142857142</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02976190476190476</v>
+        <v>0.0270935960591133</v>
       </c>
       <c r="N17">
-        <v>0.005952380952380952</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="O17">
-        <v>0.04464285714285714</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1101190476190476</v>
+        <v>0.1133004926108374</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006535947712418301</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="I18">
-        <v>0.1045751633986928</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="J18">
-        <v>0.3660130718954248</v>
+        <v>0.3920454545454545</v>
       </c>
       <c r="K18">
-        <v>0.130718954248366</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0130718954248366</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06535947712418301</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0915032679738562</v>
+        <v>0.09659090909090909</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0146484375</v>
+        <v>0.01341156747694887</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.23046875</v>
+        <v>0.2321877619446773</v>
       </c>
       <c r="I19">
-        <v>0.107421875</v>
+        <v>0.1123218776194468</v>
       </c>
       <c r="J19">
-        <v>0.361328125</v>
+        <v>0.3528918692372171</v>
       </c>
       <c r="K19">
-        <v>0.1083984375</v>
+        <v>0.1123218776194468</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03125</v>
+        <v>0.03017602682313495</v>
       </c>
       <c r="N19">
-        <v>0.0009765625</v>
+        <v>0.001676445934618609</v>
       </c>
       <c r="O19">
-        <v>0.0576171875</v>
+        <v>0.06035205364626991</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.087890625</v>
+        <v>0.08466051969823973</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Drake_B.xlsx
+++ b/team_specific_matrix/Drake_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2024291497975708</v>
+        <v>0.2027491408934708</v>
       </c>
       <c r="C2">
-        <v>0.5465587044534413</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02024291497975709</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1295546558704453</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1012145748987854</v>
+        <v>0.1134020618556701</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03623188405797102</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01449275362318841</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6956521739130435</v>
+        <v>0.7232704402515723</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2536231884057971</v>
+        <v>0.2327044025157233</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7826086956521739</v>
+        <v>0.78</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1956521739130435</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04950495049504951</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01485148514851485</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="F6">
-        <v>0.05445544554455446</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0297029702970297</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1138613861386139</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R6">
-        <v>0.1089108910891089</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S6">
-        <v>0.4603960396039604</v>
+        <v>0.4490740740740741</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07291666666666667</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03645833333333334</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.046875</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.109375</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.234375</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="R7">
-        <v>0.046875</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="S7">
-        <v>0.453125</v>
+        <v>0.4292452830188679</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08620689655172414</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01939655172413793</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="E8">
-        <v>0.002155172413793103</v>
+        <v>0.001972386587771203</v>
       </c>
       <c r="F8">
-        <v>0.08405172413793104</v>
+        <v>0.07889546351084813</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07974137931034483</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03017241379310345</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1918103448275862</v>
+        <v>0.1972386587771203</v>
       </c>
       <c r="R8">
-        <v>0.08189655172413793</v>
+        <v>0.08481262327416174</v>
       </c>
       <c r="S8">
-        <v>0.4245689655172414</v>
+        <v>0.4161735700197239</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06018518518518518</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06481481481481481</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1064814814814815</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="S9">
-        <v>0.4907407407407408</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1091417910447761</v>
+        <v>0.1138487680543755</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02332089552238806</v>
+        <v>0.02293967714528462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06996268656716417</v>
+        <v>0.0713678844519966</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.105410447761194</v>
+        <v>0.1079014443500425</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03078358208955224</v>
+        <v>0.02888700084961767</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1996268656716418</v>
+        <v>0.1945624468988955</v>
       </c>
       <c r="R10">
-        <v>0.08582089552238806</v>
+        <v>0.08836023789294817</v>
       </c>
       <c r="S10">
-        <v>0.3759328358208955</v>
+        <v>0.3721325403568394</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.133587786259542</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07251908396946564</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="K11">
-        <v>0.1908396946564886</v>
+        <v>0.1883561643835616</v>
       </c>
       <c r="L11">
-        <v>0.5916030534351145</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01145038167938931</v>
+        <v>0.01027397260273973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7935483870967742</v>
+        <v>0.764367816091954</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.167741935483871</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="L12">
-        <v>0.01935483870967742</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01935483870967742</v>
+        <v>0.02298850574712644</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01015228426395939</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.16751269035533</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.07106598984771574</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J15">
-        <v>0.2944162436548223</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K15">
-        <v>0.06598984771573604</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01015228426395939</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05583756345177665</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3248730964467005</v>
+        <v>0.3287037037037037</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="I16">
-        <v>0.08125</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="J16">
-        <v>0.43125</v>
+        <v>0.4202127659574468</v>
       </c>
       <c r="K16">
-        <v>0.075</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01875</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04375</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.13125</v>
+        <v>0.1329787234042553</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01231527093596059</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2142857142857143</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="I17">
-        <v>0.1009852216748768</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="J17">
-        <v>0.416256157635468</v>
+        <v>0.4136363636363636</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0270935960591133</v>
+        <v>0.025</v>
       </c>
       <c r="N17">
-        <v>0.004926108374384237</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O17">
-        <v>0.03940886699507389</v>
+        <v>0.04318181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1133004926108374</v>
+        <v>0.1045454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005681818181818182</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2159090909090909</v>
+        <v>0.2171717171717172</v>
       </c>
       <c r="I18">
-        <v>0.09659090909090909</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="J18">
-        <v>0.3920454545454545</v>
+        <v>0.398989898989899</v>
       </c>
       <c r="K18">
-        <v>0.1136363636363636</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06818181818181818</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09659090909090909</v>
+        <v>0.09595959595959595</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01341156747694887</v>
+        <v>0.0124031007751938</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2321877619446773</v>
+        <v>0.2286821705426356</v>
       </c>
       <c r="I19">
-        <v>0.1123218776194468</v>
+        <v>0.1077519379844961</v>
       </c>
       <c r="J19">
-        <v>0.3528918692372171</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="K19">
-        <v>0.1123218776194468</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03017602682313495</v>
+        <v>0.03178294573643411</v>
       </c>
       <c r="N19">
-        <v>0.001676445934618609</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="O19">
-        <v>0.06035205364626991</v>
+        <v>0.06124031007751938</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08466051969823973</v>
+        <v>0.08759689922480621</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Drake_B.xlsx
+++ b/team_specific_matrix/Drake_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2027491408934708</v>
+        <v>0.2006802721088435</v>
       </c>
       <c r="C2">
-        <v>0.5360824742268041</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02061855670103093</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.127147766323024</v>
+        <v>0.1258503401360544</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1134020618556701</v>
+        <v>0.1122448979591837</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03144654088050314</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01257861635220126</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7232704402515723</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2327044025157233</v>
+        <v>0.228395061728395</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.78</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06481481481481481</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="E6">
-        <v>0.004629629629629629</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1666666666666667</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02777777777777778</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1111111111111111</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="R6">
-        <v>0.1064814814814815</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="S6">
-        <v>0.4490740740740741</v>
+        <v>0.4537444933920705</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09433962264150944</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0330188679245283</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04245283018867924</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1037735849056604</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004716981132075472</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2358490566037736</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="R7">
-        <v>0.05660377358490566</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="S7">
-        <v>0.4292452830188679</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08875739644970414</v>
+        <v>0.08795411089866156</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01972386587771203</v>
+        <v>0.02103250478011472</v>
       </c>
       <c r="E8">
-        <v>0.001972386587771203</v>
+        <v>0.001912045889101338</v>
       </c>
       <c r="F8">
-        <v>0.07889546351084813</v>
+        <v>0.07839388145315487</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08284023668639054</v>
+        <v>0.08030592734225621</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02958579881656805</v>
+        <v>0.03250478011472276</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1972386587771203</v>
+        <v>0.2007648183556405</v>
       </c>
       <c r="R8">
-        <v>0.08481262327416174</v>
+        <v>0.08413001912045889</v>
       </c>
       <c r="S8">
-        <v>0.4161735700197239</v>
+        <v>0.4130019120458891</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06926406926406926</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01731601731601732</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06060606060606061</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1038961038961039</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01731601731601732</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1645021645021645</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R9">
-        <v>0.08225108225108226</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="S9">
-        <v>0.4848484848484849</v>
+        <v>0.4830508474576271</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1138487680543755</v>
+        <v>0.112396694214876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02293967714528462</v>
+        <v>0.02231404958677686</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0713678844519966</v>
+        <v>0.07107438016528926</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1079014443500425</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02888700084961767</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1945624468988955</v>
+        <v>0.1950413223140496</v>
       </c>
       <c r="R10">
-        <v>0.08836023789294817</v>
+        <v>0.0884297520661157</v>
       </c>
       <c r="S10">
-        <v>0.3721325403568394</v>
+        <v>0.3743801652892562</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.136986301369863</v>
+        <v>0.1344262295081967</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07534246575342465</v>
+        <v>0.07213114754098361</v>
       </c>
       <c r="K11">
-        <v>0.1883561643835616</v>
+        <v>0.1836065573770492</v>
       </c>
       <c r="L11">
-        <v>0.589041095890411</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01027397260273973</v>
+        <v>0.009836065573770493</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.764367816091954</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1781609195402299</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.005747126436781609</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="L12">
-        <v>0.02873563218390805</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02298850574712644</v>
+        <v>0.02150537634408602</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009259259259259259</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="I15">
-        <v>0.07407407407407407</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="J15">
-        <v>0.2962962962962963</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="K15">
-        <v>0.06481481481481481</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009259259259259259</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05092592592592592</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3287037037037037</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2127659574468085</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I16">
-        <v>0.07446808510638298</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J16">
-        <v>0.4202127659574468</v>
+        <v>0.421875</v>
       </c>
       <c r="K16">
-        <v>0.06914893617021277</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04787234042553191</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1329787234042553</v>
+        <v>0.1302083333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01136363636363636</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2181818181818182</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="I17">
-        <v>0.1022727272727273</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J17">
-        <v>0.4136363636363636</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="K17">
-        <v>0.07727272727272727</v>
+        <v>0.08043478260869565</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.025</v>
+        <v>0.02391304347826087</v>
       </c>
       <c r="N17">
-        <v>0.004545454545454545</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O17">
-        <v>0.04318181818181818</v>
+        <v>0.04130434782608695</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1045454545454545</v>
+        <v>0.1065217391304348</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005050505050505051</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2171717171717172</v>
+        <v>0.2118226600985222</v>
       </c>
       <c r="I18">
-        <v>0.101010101010101</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="J18">
-        <v>0.398989898989899</v>
+        <v>0.4088669950738916</v>
       </c>
       <c r="K18">
-        <v>0.1060606060606061</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01515151515151515</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06060606060606061</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09595959595959595</v>
+        <v>0.09359605911330049</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0124031007751938</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2286821705426356</v>
+        <v>0.2302483069977427</v>
       </c>
       <c r="I19">
-        <v>0.1077519379844961</v>
+        <v>0.1075996990218209</v>
       </c>
       <c r="J19">
-        <v>0.3527131782945737</v>
+        <v>0.3528969149736644</v>
       </c>
       <c r="K19">
-        <v>0.1162790697674419</v>
+        <v>0.1166290443942814</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03178294573643411</v>
+        <v>0.0308502633559067</v>
       </c>
       <c r="N19">
-        <v>0.001550387596899225</v>
+        <v>0.001504890895410083</v>
       </c>
       <c r="O19">
-        <v>0.06124031007751938</v>
+        <v>0.06170052671181339</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08759689922480621</v>
+        <v>0.08502633559066967</v>
       </c>
     </row>
   </sheetData>
